--- a/biology/Botanique/Lachnella_villosa/Lachnella_villosa.xlsx
+++ b/biology/Botanique/Lachnella_villosa/Lachnella_villosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lachnella villosa est une espèce de champignons basidiomycètes de très petite taille de la famille des Lachnellaceae. Lignicole, cupuliforme et non comestible, il pousse sur les branches des frênes.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Lachnella villosa (Pers.) Gillet, 1881[1].
-L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza villosa Pers., 1801[1].
-Lachnella villosa a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Lachnella villosa (Pers.) Gillet, 1881.
+L'espèce a été initialement classée dans le genre Peziza sous le basionyme Peziza villosa Pers., 1801.
+Lachnella villosa a pour synonymes :
 Chaetocypha villosa (Pers.) Kuntze, 1891
 Cyathicula villosa (Pers.) P. Karst., 1866
 Cyphella villosa (Pers.) P. Crouan &amp; H. Crouan, 1867
@@ -554,7 +568,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C.C. Gillet, Champignons de France. Les Discomycètes, vol. 3, 1880, p. 57-84</t>
         </is>
